--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_316__Reeval_Taguchi_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_316__Reeval_Taguchi_Modell_1.3.xlsx
@@ -5420,7 +5420,7 @@
                   <c:v>89.45657348632812</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95.13421630859375</c:v>
+                  <c:v>95.13423156738281</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>96.83198547363281</c:v>
@@ -5441,7 +5441,7 @@
                   <c:v>97.34086608886719</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>86.32460021972656</c:v>
+                  <c:v>86.3245849609375</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>97.61982727050781</c:v>
@@ -5462,19 +5462,19 @@
                   <c:v>43.98939514160156</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>72.64735412597656</c:v>
+                  <c:v>72.64736175537109</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>69.27907562255859</c:v>
+                  <c:v>69.27908325195312</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15.25476264953613</c:v>
+                  <c:v>15.2547607421875</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>97.47991943359375</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>79.56890869140625</c:v>
+                  <c:v>79.56889343261719</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>56.85856246948242</c:v>
@@ -5498,7 +5498,7 @@
                   <c:v>88.86083984375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>97.28802490234375</c:v>
+                  <c:v>97.28800964355469</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>67.85739898681641</c:v>
@@ -5546,7 +5546,7 @@
                   <c:v>86.00688171386719</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>82.36605834960938</c:v>
+                  <c:v>82.36607360839844</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>87.98628234863281</c:v>
@@ -5558,22 +5558,22 @@
                   <c:v>84.58413696289062</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>97.6253662109375</c:v>
+                  <c:v>97.62535095214844</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>97.27243041992188</c:v>
+                  <c:v>97.27244567871094</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>82.7418212890625</c:v>
+                  <c:v>82.74180603027344</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>85.15980529785156</c:v>
+                  <c:v>85.15982055664062</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>96.80061340332031</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>75.31194305419922</c:v>
+                  <c:v>75.31193542480469</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>90.07455444335938</c:v>
@@ -5582,25 +5582,25 @@
                   <c:v>56.15926361083984</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>94.61834716796875</c:v>
+                  <c:v>94.61836242675781</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>76.99639892578125</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>52.96950912475586</c:v>
+                  <c:v>52.96951293945312</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>96.39759826660156</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>46.00310516357422</c:v>
+                  <c:v>46.00310134887695</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>85.58839416503906</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>97.99143981933594</c:v>
+                  <c:v>97.991455078125</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>97.33192443847656</c:v>
@@ -5609,7 +5609,7 @@
                   <c:v>97.36235046386719</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>88.07826232910156</c:v>
+                  <c:v>88.0782470703125</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>94.13125610351562</c:v>
@@ -5636,7 +5636,7 @@
                   <c:v>97.76261901855469</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>97.5775146484375</c:v>
+                  <c:v>97.57749938964844</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>28.16878318786621</c:v>
@@ -5657,7 +5657,7 @@
                   <c:v>63.44503402709961</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>53.42752456665039</c:v>
+                  <c:v>53.42752838134766</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>97.68257141113281</c:v>
@@ -6411,7 +6411,7 @@
         <v>93.9058</v>
       </c>
       <c r="F3">
-        <v>95.13421630859375</v>
+        <v>95.13423156738281</v>
       </c>
       <c r="G3">
         <v>99</v>
@@ -6611,7 +6611,7 @@
         <v>89.3151</v>
       </c>
       <c r="F10">
-        <v>86.32460021972656</v>
+        <v>86.3245849609375</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6751,7 +6751,7 @@
         <v>73.52419999999999</v>
       </c>
       <c r="F17">
-        <v>72.64735412597656</v>
+        <v>72.64736175537109</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6771,7 +6771,7 @@
         <v>72.99850000000001</v>
       </c>
       <c r="F18">
-        <v>69.27907562255859</v>
+        <v>69.27908325195312</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6791,7 +6791,7 @@
         <v>12.1498</v>
       </c>
       <c r="F19">
-        <v>15.25476264953613</v>
+        <v>15.2547607421875</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6831,7 +6831,7 @@
         <v>80.21729999999999</v>
       </c>
       <c r="F21">
-        <v>79.56890869140625</v>
+        <v>79.56889343261719</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>97.328</v>
       </c>
       <c r="F29">
-        <v>97.28802490234375</v>
+        <v>97.28800964355469</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>78.7594</v>
       </c>
       <c r="F45">
-        <v>82.36605834960938</v>
+        <v>82.36607360839844</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>96.76430000000001</v>
       </c>
       <c r="F49">
-        <v>97.6253662109375</v>
+        <v>97.62535095214844</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>97.4067</v>
       </c>
       <c r="F50">
-        <v>97.27243041992188</v>
+        <v>97.27244567871094</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>83.31910000000001</v>
       </c>
       <c r="F51">
-        <v>82.7418212890625</v>
+        <v>82.74180603027344</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>85.7353</v>
       </c>
       <c r="F52">
-        <v>85.15980529785156</v>
+        <v>85.15982055664062</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>75.0586</v>
       </c>
       <c r="F54">
-        <v>75.31194305419922</v>
+        <v>75.31193542480469</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>95.4624</v>
       </c>
       <c r="F57">
-        <v>94.61834716796875</v>
+        <v>94.61836242675781</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>51.2359</v>
       </c>
       <c r="F59">
-        <v>52.96950912475586</v>
+        <v>52.96951293945312</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>46.5133</v>
       </c>
       <c r="F61">
-        <v>46.00310516357422</v>
+        <v>46.00310134887695</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>98.0121</v>
       </c>
       <c r="F63">
-        <v>97.99143981933594</v>
+        <v>97.991455078125</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>89.3086</v>
       </c>
       <c r="F66">
-        <v>88.07826232910156</v>
+        <v>88.0782470703125</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>97.50060000000001</v>
       </c>
       <c r="F75">
-        <v>97.5775146484375</v>
+        <v>97.57749938964844</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>52.9032</v>
       </c>
       <c r="F82">
-        <v>53.42752456665039</v>
+        <v>53.42752838134766</v>
       </c>
     </row>
     <row r="83" spans="1:6">
